--- a/fonarik/dzfonarik-xlsx.xlsx
+++ b/fonarik/dzfonarik-xlsx.xlsx
@@ -5,11 +5,12 @@
   <sheets>
     <sheet state="visible" name="дз 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="чек лист приложение Фонарик на " sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="test case" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="дз 2" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="дз4" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="дз 5" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="дз 3" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Метрики" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="test case" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="дз 2" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="дз4" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="дз 5" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="дз 3" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="221">
   <si>
     <t>Окунь Екатерина</t>
   </si>
@@ -55,6 +56,9 @@
     <t>Длинное касание - включен</t>
   </si>
   <si>
+    <t>С точки зрения UX Короткие касание не желательно т к возможно фантомное включение ( к примеру в кармане ) что приведет к нежелательному разряду батареи</t>
+  </si>
+  <si>
     <t>Коротое касание - не выключен</t>
   </si>
   <si>
@@ -103,16 +107,86 @@
     <t>Открытый пункт управления. Длинное касание открывает дополнительное меню яркости фонарика ( содержит 4 уровня яркости )</t>
   </si>
   <si>
-    <t>последующие включения фонарика сохраняет выбранный режим яркости</t>
-  </si>
-  <si>
-    <t>при комбинирование пункта 14 и 4. Сначала включен потом выключен</t>
-  </si>
-  <si>
-    <t>При комбинировании пункта 2 и 15. Сначала включен, потом выключен</t>
-  </si>
-  <si>
-    <t>Включенный фонарь, потребляет достаточное количество энергии. Тем самым быстро  разряжает батарею мобильного телефона. Автоматического выключения не существует</t>
+    <t>С точки зрения UX 4 уровня яркости позволяют выбрать желаемый уровень свечения. Приложение запоминает последний выбранный уровень</t>
+  </si>
+  <si>
+    <t>Открытый пункт управления. Короткое касание - включен и Длинное касание - выключен . Сначала включен потом выключен</t>
+  </si>
+  <si>
+    <t>Длинное касание - включен и Открытый пункт управления. Короткое касание - выключен . Сначала включен, потом выключен</t>
+  </si>
+  <si>
+    <t>Включенный фонарь, потребляет достаточное количество энергии. При разной интенсивности освещения расход заряда отличается, при более интенсивном, расходуется больше</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фонарик включен. После неудачно введенного пароля ( 5 раз ), Экран «sos», фонарик выключен
+</t>
+  </si>
+  <si>
+    <t>1. Метрики</t>
+  </si>
+  <si>
+    <t>Тестовое покрытие требования</t>
+  </si>
+  <si>
+    <t>Реальное время работы команды QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точность оценки времени </t>
+  </si>
+  <si>
+    <t>Общие количество тестов</t>
+  </si>
+  <si>
+    <t>Общее количество требований</t>
+  </si>
+  <si>
+    <t>Метрика, отн.ед</t>
+  </si>
+  <si>
+    <t>Время потраченое на целевые QA активности</t>
+  </si>
+  <si>
+    <t>Общее количество рабочих часов команды</t>
+  </si>
+  <si>
+    <t>метрика, час</t>
+  </si>
+  <si>
+    <t>Оценночное время работы</t>
+  </si>
+  <si>
+    <t>Фактическое время работы</t>
+  </si>
+  <si>
+    <t>Метрика, %</t>
+  </si>
+  <si>
+    <t>Метрика показывает достаточное покрытие тестами по отношению к требованиям</t>
+  </si>
+  <si>
+    <t>Метрика показывает, что команда, достаточно успешна и справляется с поставлеными задачами</t>
+  </si>
+  <si>
+    <t>Метрика показывает,что на 75% команды вкладывается в отведенное время</t>
+  </si>
+  <si>
+    <t>Коэффициент стабильности требований</t>
+  </si>
+  <si>
+    <t>Количество изменений в существующих требованиях</t>
+  </si>
+  <si>
+    <t>Общее количество требований реализовых за итерацию, включая новые</t>
+  </si>
+  <si>
+    <t>Метрика, коэф</t>
+  </si>
+  <si>
+    <t>Метрика показывает, что ранее внедренные изменения, ранее покрывали новые требования</t>
+  </si>
+  <si>
+    <t>2. Блок схема</t>
   </si>
   <si>
     <t>Регистрация на сайте https://qauto2.forstudy.space</t>
@@ -614,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -663,6 +737,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -693,13 +781,57 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -730,6 +862,27 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -739,7 +892,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -759,7 +912,813 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7096125" cy="5429250"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="Рисунок"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="-9850" y="49100"/>
+          <a:ext cx="7097225" cy="5411050"/>
+          <a:chOff x="-9850" y="49100"/>
+          <a:chExt cx="7097225" cy="5411050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="901850" y="166650"/>
+            <a:ext cx="1901700" cy="529500"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd fmla="val 16667" name="adj"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Начало (фонарик выключен)</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-9850" y="1382175"/>
+            <a:ext cx="1823400" cy="578400"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst>
+              <a:gd fmla="val 25000" name="adj"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Долгое нажатие иконки фонарика</a:t>
+            </a:r>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+            <a:endCxn id="4" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="902000" y="696150"/>
+            <a:ext cx="950700" cy="686100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1261300" y="3666075"/>
+            <a:ext cx="1388700" cy="1117500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300"/>
+              <a:t>Фонарик включен (с заданной яркостью)</a:t>
+            </a:r>
+            <a:endParaRPr sz="1300"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="3"/>
+            <a:endCxn id="6" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="829550" y="1960575"/>
+            <a:ext cx="1126200" cy="1705500"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Shape 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1986700" y="1382175"/>
+            <a:ext cx="1823300" cy="686100"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartInputOutput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>С помощью голосового помощника (Siri)</a:t>
+            </a:r>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+            <a:endCxn id="8" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1852700" y="696150"/>
+            <a:ext cx="863400" cy="686100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="1"/>
+            <a:endCxn id="3" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="901850" y="431400"/>
+            <a:ext cx="0" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Shape 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3810000" y="49100"/>
+            <a:ext cx="1777575" cy="764600"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartInputOutput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>открыть пункт управления</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="3"/>
+            <a:endCxn id="11" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2803550" y="431400"/>
+            <a:ext cx="1184100" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4028925" y="1489875"/>
+            <a:ext cx="1450800" cy="578400"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartInputOutput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Короткое касание</a:t>
+            </a:r>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Shape 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5698650" y="1548825"/>
+            <a:ext cx="1388725" cy="519450"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartInputOutput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Длинное касание</a:t>
+            </a:r>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="11" idx="4"/>
+            <a:endCxn id="13" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4698788" y="813700"/>
+            <a:ext cx="55500" cy="676200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="13" idx="3"/>
+            <a:endCxn id="6" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1955745" y="2068275"/>
+            <a:ext cx="2653500" cy="1597800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="Shape 17"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="11" idx="5"/>
+            <a:endCxn id="14" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5409818" y="431400"/>
+            <a:ext cx="1122000" cy="1117500"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4205375" y="3626775"/>
+            <a:ext cx="1008900" cy="902100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Выбор уровня яркости</a:t>
+            </a:r>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="3"/>
+            <a:endCxn id="6" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1955680" y="2068275"/>
+            <a:ext cx="1125000" cy="1597800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="Shape 20"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="14" idx="3"/>
+            <a:endCxn id="18" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4709740" y="2068275"/>
+            <a:ext cx="1544400" cy="1558500"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Shape 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2852600" y="5156250"/>
+            <a:ext cx="1122000" cy="303900"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CFE2F3"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>   Конец</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="Shape 22"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="2"/>
+            <a:endCxn id="21" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1955650" y="4783575"/>
+            <a:ext cx="1458000" cy="372600"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Shape 23"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="18" idx="2"/>
+            <a:endCxn id="21" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3413525" y="4528875"/>
+            <a:ext cx="1296300" cy="627300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,6 +1734,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1043,7 +2006,7 @@
     <col customWidth="1" min="1" max="1" width="3.88"/>
     <col customWidth="1" min="2" max="2" width="49.13"/>
     <col customWidth="1" min="3" max="3" width="17.63"/>
-    <col customWidth="1" min="4" max="4" width="19.88"/>
+    <col customWidth="1" min="4" max="4" width="37.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1079,13 +2042,16 @@
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7">
         <v>3.0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>10</v>
@@ -1096,7 +2062,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>10</v>
@@ -1107,7 +2073,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
@@ -1118,7 +2084,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
@@ -1129,13 +2095,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1143,10 +2109,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1154,7 +2120,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
@@ -1165,10 +2131,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1176,7 +2142,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -1187,7 +2153,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>10</v>
@@ -1198,7 +2164,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>10</v>
@@ -1209,7 +2175,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>10</v>
@@ -1220,7 +2186,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -1231,13 +2197,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1245,7 +2211,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>10</v>
@@ -1256,7 +2222,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>10</v>
@@ -1267,9 +2233,20 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1291,543 +2268,166 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="49.38"/>
+    <col customWidth="1" min="4" max="4" width="13.75"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="11">
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="15">
+        <f>B8/C8</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="H8" s="15">
+        <f>F8/G8</f>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="L8" s="15">
+        <f>J8/K8</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="F9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="C16" s="14">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
+      <c r="D16" s="15">
+        <f>B16/C16</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="11">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="s">
+      <c r="B20" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1842,125 +2442,540 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="1" max="1" width="49.38"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="9" t="s">
-        <v>63</v>
+      <c r="A2" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="9" t="s">
-        <v>72</v>
+      <c r="A11" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>75</v>
+      <c r="A12" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="A16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="15" t="s">
-        <v>79</v>
+      <c r="A18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="15"/>
+      <c r="A19" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c r="A36" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="20"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="20">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="9" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="9" t="s">
+    <row r="75">
+      <c r="A75" s="20">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="9" t="s">
+    <row r="80">
+      <c r="A80" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
+    <row r="81">
+      <c r="A81" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="9" t="s">
-        <v>88</v>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1978,27 +2993,27 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.75"/>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2011,196 +3026,92 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="9" t="s">
         <v>94</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" ht="2.25" customHeight="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B18" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="24"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="15" t="s">
-        <v>81</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="B23" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="9" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2218,163 +3129,229 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.38"/>
+    <col customWidth="1" min="1" max="1" width="20.75"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="9"/>
+    <row r="2">
+      <c r="B2" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>133</v>
+        <v>90</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="B11" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="9" t="s">
-        <v>139</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" ht="2.25" customHeight="1"/>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="B15" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="9" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="B17" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>145</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="B20" s="9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="9" t="s">
-        <v>148</v>
+      <c r="B21" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="B24" s="9" t="s">
-        <v>150</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="B27" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="9" t="s">
-        <v>156</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="B34" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>159</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="9" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="9" t="s">
-        <v>162</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2391,151 +3368,325 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.38"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="9" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="9" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="9" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="9" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="9" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
